--- a/biology/Zoologie/Afropisaura_rothiformis/Afropisaura_rothiformis.xlsx
+++ b/biology/Zoologie/Afropisaura_rothiformis/Afropisaura_rothiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afropisaura rothiformis est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afropisaura rothiformis est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Nigeria, au Cameroun, en Éthiopie, en Somalie, en Ouganda, au Burundi, en Tanzanie, au Congo-Kinshasa, en Angola et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Nigeria, au Cameroun, en Éthiopie, en Somalie, en Ouganda, au Burundi, en Tanzanie, au Congo-Kinshasa, en Angola et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 9 à 10 mm[2].
-Le mâle mesure 10 mm et la femelle 11 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 9 à 10 mm.
+Le mâle mesure 10 mm et la femelle 11 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pisaura rothiformis par Strand en 1908. Elle est placée dans le genre Afropisaura par Blandin en 1976[3].
-Pisaura rothiformis orientalis[4] a été placé en synonymie par Roewer en 1955[5].
-Rothus faradjensis[6] a été placé en synonymie par Blandin en 1976[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Pisaura rothiformis par Strand en 1908. Elle est placée dans le genre Afropisaura par Blandin en 1976.
+Pisaura rothiformis orientalis a été placé en synonymie par Roewer en 1955.
+Rothus faradjensis a été placé en synonymie par Blandin en 1976.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Strand, 1908 : « Exotisch araneologisches.-I. Amerikanische hauptsächlich in Peru, Bolivien und Josemitetal in Californien gesammelte Spinnen. » Zeitschrift für die gesammten Naturwissenschaften, vol. 61, no 5, p. 223-295 (texte intégral).</t>
         </is>
